--- a/spec/ConvSpec-760-788-Links-v1.7.xlsx
+++ b/spec/ConvSpec-760-788-Links-v1.7.xlsx
@@ -420,7 +420,7 @@
     <t>W - issuedWith</t>
   </si>
   <si>
-    <t xml:space="preserve">Fields 76X-78X - Linking Entries - v1.7, 07/29/2021
+    <t xml:space="preserve">Fields 76X-78X - Linking Entries - v1.7, 10/21/2021
 </t>
   </si>
 </sst>
@@ -851,7 +851,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
